--- a/Rastreador GPS+Maps/Resources/Modelo_reporte_P.xlsx
+++ b/Rastreador GPS+Maps/Resources/Modelo_reporte_P.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="156" windowWidth="20052" windowHeight="7932"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -42,14 +42,14 @@
     <t>Reporte de mediciones de Radiaciones No Ionizantes</t>
   </si>
   <si>
-    <t>2020 - AÑO DEL GENERAL MANUEL BELGRANO</t>
+    <t>2022 - LAS MALVINAS SON ARGENTINAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,11 +140,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -152,6 +152,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -273,6 +278,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -307,6 +313,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,7 +489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -490,35 +497,35 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="13.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="13.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75">
-      <c r="H1" s="7" t="s">
+    <row r="1" spans="1:8" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="12" thickBot="1"/>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
@@ -538,7 +545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -546,7 +553,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -554,7 +561,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -562,7 +569,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -570,7 +577,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -578,7 +585,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -586,7 +593,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -594,7 +601,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -619,26 +626,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rastreador GPS+Maps/Resources/Modelo_reporte_P.xlsx
+++ b/Rastreador GPS+Maps/Resources/Modelo_reporte_P.xlsx
@@ -42,7 +42,7 @@
     <t>Reporte de mediciones de Radiaciones No Ionizantes</t>
   </si>
   <si>
-    <t>2022 - LAS MALVINAS SON ARGENTINAS</t>
+    <t>2022 - Las Malvinas son argentinas</t>
   </si>
 </sst>
 </file>
@@ -167,31 +167,37 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>15241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>452257</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>813556</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119413</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="3 Imagen" descr="ENACOM_contexto_final.jpg"/>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1"/>
-          <a:ext cx="1271407" cy="876299"/>
+          <a:off x="0" y="15241"/>
+          <a:ext cx="2459476" cy="538512"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -494,7 +500,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>

--- a/Rastreador GPS+Maps/Resources/Modelo_reporte_P.xlsx
+++ b/Rastreador GPS+Maps/Resources/Modelo_reporte_P.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="156" windowWidth="20052" windowHeight="7932"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Indice</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Reporte de mediciones de Radiaciones No Ionizantes</t>
-  </si>
-  <si>
-    <t>2022 - Las Malvinas son argentinas</t>
   </si>
 </sst>
 </file>
@@ -500,23 +497,21 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
-    <col min="2" max="3" width="11.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="13.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="13.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
+    <row r="1" spans="1:8" ht="13.9" x14ac:dyDescent="0.2">
+      <c r="H1" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -530,7 +525,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="10.8" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="10.9" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>0</v>
@@ -551,7 +546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="10.15" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -559,7 +554,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="10.15" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -567,7 +562,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="10.15" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -575,7 +570,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="10.15" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -583,7 +578,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="10.15" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -591,7 +586,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="10.15" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -599,7 +594,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="10.15" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -607,7 +602,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="10.15" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -638,7 +633,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -651,7 +646,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rastreador GPS+Maps/Resources/Modelo_reporte_P.xlsx
+++ b/Rastreador GPS+Maps/Resources/Modelo_reporte_P.xlsx
@@ -162,13 +162,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>253042</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>15241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>813556</xdr:colOff>
+      <xdr:colOff>560513</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>119413</xdr:rowOff>
     </xdr:to>
@@ -180,7 +180,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -193,8 +193,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="15241"/>
-          <a:ext cx="2459476" cy="538512"/>
+          <a:off x="253042" y="15241"/>
+          <a:ext cx="1945771" cy="561372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
